--- a/documantation/Copy of 2016 09 23 ROAD_IT_datamatrix.xlsx
+++ b/documantation/Copy of 2016 09 23 ROAD_IT_datamatrix.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="408" windowHeight="6384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="405" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="concensus" sheetId="2" r:id="rId1"/>
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2151,10 +2151,38 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2167,9 +2195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2207,7 +2235,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2242,6 +2270,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2277,9 +2322,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2455,27 +2517,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" style="1" customWidth="1"/>
-    <col min="4" max="9" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="40.44140625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="37" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" customWidth="1"/>
-    <col min="29" max="30" width="3.6640625" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="1" customWidth="1"/>
+    <col min="4" max="9" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="40.5" style="37" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="37" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="5.625" customWidth="1"/>
+    <col min="29" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="138" t="s">
         <v>42</v>
       </c>
@@ -2508,7 +2570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="144" t="s">
         <v>74</v>
       </c>
@@ -2527,7 +2589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="145"/>
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
@@ -2544,7 +2606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="146"/>
       <c r="B6" s="74"/>
       <c r="C6" s="75" t="s">
@@ -2563,7 +2625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="129" t="s">
         <v>6</v>
       </c>
@@ -2594,7 +2656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130"/>
       <c r="B8" s="49"/>
       <c r="C8" s="51" t="s">
@@ -2619,7 +2681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="131"/>
       <c r="B9" s="141" t="s">
         <v>56</v>
@@ -2649,7 +2711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="132"/>
       <c r="B10" s="142"/>
       <c r="C10" s="48" t="s">
@@ -2677,7 +2739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132"/>
       <c r="B11" s="142"/>
       <c r="C11" s="48" t="s">
@@ -2705,7 +2767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="132"/>
       <c r="B12" s="142"/>
       <c r="C12" s="48" t="s">
@@ -2727,7 +2789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="132"/>
       <c r="B13" s="142"/>
       <c r="C13" s="48" t="s">
@@ -2749,7 +2811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="132"/>
       <c r="B14" s="142"/>
       <c r="C14" s="48" t="s">
@@ -2771,7 +2833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="133"/>
       <c r="B15" s="142"/>
       <c r="C15" s="63" t="s">
@@ -2793,7 +2855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="134"/>
       <c r="B16" s="50"/>
       <c r="C16" s="55" t="s">
@@ -2820,7 +2882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="135" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="136"/>
       <c r="B18" s="40"/>
       <c r="C18" s="6" t="s">
@@ -2872,7 +2934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="136"/>
       <c r="B19" s="40"/>
       <c r="C19" s="6" t="s">
@@ -2897,7 +2959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="136"/>
       <c r="B20" s="40"/>
       <c r="C20" s="6" t="s">
@@ -2920,7 +2982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="136"/>
       <c r="B21" s="40"/>
       <c r="C21" s="6" t="s">
@@ -2946,7 +3008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="136"/>
       <c r="B22" s="40"/>
       <c r="C22" s="6" t="s">
@@ -2967,7 +3029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="136"/>
       <c r="B23" s="40"/>
       <c r="C23" s="6" t="s">
@@ -2993,7 +3055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="136"/>
       <c r="B24" s="40"/>
       <c r="C24" s="6" t="s">
@@ -3017,7 +3079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="136"/>
       <c r="B25" s="40"/>
       <c r="C25" s="6" t="s">
@@ -3038,7 +3100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="136"/>
       <c r="B26" s="42"/>
       <c r="C26" s="6" t="s">
@@ -3062,7 +3124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="136"/>
       <c r="B27" s="42"/>
       <c r="C27" s="6" t="s">
@@ -3083,7 +3145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="137"/>
       <c r="B28" s="41"/>
       <c r="C28" s="7" t="s">
@@ -3104,7 +3166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
         <v>11</v>
       </c>
@@ -3125,7 +3187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="44"/>
       <c r="C30" s="9" t="s">
@@ -3144,7 +3206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="126"/>
       <c r="B31" s="44"/>
       <c r="C31" s="9" t="s">
@@ -3163,7 +3225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="126"/>
       <c r="B32" s="44"/>
       <c r="C32" s="9" t="s">
@@ -3182,7 +3244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
       <c r="B33" s="44"/>
       <c r="C33" s="9" t="s">
@@ -3201,7 +3263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="126"/>
       <c r="B34" s="44"/>
       <c r="C34" s="9" t="s">
@@ -3220,7 +3282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="126"/>
       <c r="B35" s="44"/>
       <c r="C35" s="9" t="s">
@@ -3239,7 +3301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="126"/>
       <c r="B36" s="44"/>
       <c r="C36" s="9" t="s">
@@ -3258,7 +3320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="126"/>
       <c r="B37" s="44"/>
       <c r="C37" s="9" t="s">
@@ -3277,7 +3339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="126"/>
       <c r="B38" s="44"/>
       <c r="C38" s="9" t="s">
@@ -3296,7 +3358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="128"/>
       <c r="B39" s="45"/>
       <c r="C39" s="10" t="s">
@@ -3315,7 +3377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="143" t="s">
         <v>22</v>
       </c>
@@ -3336,7 +3398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="126"/>
       <c r="B41" s="44"/>
       <c r="C41" s="9" t="s">
@@ -3353,7 +3415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="126"/>
       <c r="B42" s="44"/>
       <c r="C42" s="9" t="s">
@@ -3370,7 +3432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="126"/>
       <c r="B43" s="44"/>
       <c r="C43" s="9" t="s">
@@ -3389,7 +3451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="127"/>
       <c r="B44" s="47"/>
       <c r="C44" s="12" t="s">
@@ -3406,7 +3468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="125" t="s">
         <v>28</v>
       </c>
@@ -3429,7 +3491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="126"/>
       <c r="B46" s="44"/>
       <c r="C46" s="9" t="s">
@@ -3452,7 +3514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="126"/>
       <c r="B47" s="44"/>
       <c r="C47" s="9" t="s">
@@ -3471,7 +3533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="126"/>
       <c r="B48" s="44"/>
       <c r="C48" s="9" t="s">
@@ -3490,7 +3552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="126"/>
       <c r="B49" s="44"/>
       <c r="C49" s="9" t="s">
@@ -3509,7 +3571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="126"/>
       <c r="B50" s="44"/>
       <c r="C50" s="9" t="s">
@@ -3528,7 +3590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="127"/>
       <c r="B51" s="47"/>
       <c r="C51" s="12" t="s">
@@ -3547,7 +3609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="127"/>
       <c r="B52" s="47"/>
       <c r="C52" s="12" t="s">
@@ -3566,7 +3628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="127"/>
       <c r="B53" s="47"/>
       <c r="C53" s="12" t="s">
@@ -3585,7 +3647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="128"/>
       <c r="B54" s="45"/>
       <c r="C54" s="10" t="s">
@@ -3606,37 +3668,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A45:A54"/>
@@ -3657,34 +3719,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
     <col min="3" max="3" width="58" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="13" max="13" width="40.44140625" style="37" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="37" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" customWidth="1"/>
-    <col min="31" max="32" width="3.6640625" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="4.25" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="37" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="37" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="20" max="20" width="5.625" customWidth="1"/>
+    <col min="25" max="25" width="5.625" customWidth="1"/>
+    <col min="31" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" s="138" t="s">
         <v>117</v>
       </c>
@@ -3696,7 +3756,7 @@
       <c r="J2" s="83"/>
       <c r="K2" s="83"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
@@ -3725,7 +3785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="144" t="s">
         <v>185</v>
       </c>
@@ -3750,7 +3810,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="145"/>
       <c r="B5" s="72"/>
       <c r="C5" s="89" t="s">
@@ -3773,7 +3833,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="146"/>
       <c r="B6" s="74"/>
       <c r="C6" s="90" t="s">
@@ -3798,7 +3858,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="129" t="s">
         <v>79</v>
       </c>
@@ -3833,7 +3893,7 @@
       </c>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130"/>
       <c r="B8" s="148"/>
       <c r="C8" s="51" t="s">
@@ -3868,7 +3928,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="130"/>
       <c r="B9" s="148"/>
       <c r="C9" s="51" t="s">
@@ -3899,7 +3959,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="131"/>
       <c r="B10" s="148"/>
       <c r="C10" s="59" t="s">
@@ -3933,7 +3993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132"/>
       <c r="B11" s="148"/>
       <c r="C11" s="48" t="s">
@@ -3965,7 +4025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="132"/>
       <c r="B12" s="148"/>
       <c r="C12" s="48" t="s">
@@ -3985,7 +4045,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="132"/>
       <c r="B13" s="148"/>
       <c r="C13" s="48" t="s">
@@ -4017,7 +4077,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="132"/>
       <c r="B14" s="148"/>
       <c r="C14" s="48" t="s">
@@ -4043,7 +4103,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="132"/>
       <c r="B15" s="148"/>
       <c r="C15" s="48" t="s">
@@ -4075,7 +4135,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="132"/>
       <c r="B16" s="148"/>
       <c r="C16" s="48" t="s">
@@ -4101,7 +4161,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="132"/>
       <c r="B17" s="148"/>
       <c r="C17" s="48" t="s">
@@ -4127,7 +4187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="132"/>
       <c r="B18" s="148"/>
       <c r="C18" s="48" t="s">
@@ -4153,7 +4213,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="133"/>
       <c r="B19" s="148"/>
       <c r="C19" s="63" t="s">
@@ -4179,7 +4239,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="133"/>
       <c r="B20" s="148"/>
       <c r="C20" s="51" t="s">
@@ -4210,7 +4270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="134"/>
       <c r="B21" s="149"/>
       <c r="C21" s="93" t="s">
@@ -4231,7 +4291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="135" t="s">
         <v>7</v>
       </c>
@@ -4262,7 +4322,7 @@
       </c>
       <c r="K22" s="86"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="136"/>
       <c r="B23" s="40"/>
       <c r="C23" s="6" t="s">
@@ -4294,7 +4354,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="136"/>
       <c r="B24" s="40"/>
       <c r="C24" s="6" t="s">
@@ -4323,7 +4383,7 @@
       </c>
       <c r="K24" s="86"/>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="136"/>
       <c r="B25" s="40"/>
       <c r="C25" s="6" t="s">
@@ -4350,7 +4410,7 @@
       </c>
       <c r="K25" s="86"/>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="136"/>
       <c r="B26" s="40"/>
       <c r="C26" s="6" t="s">
@@ -4380,7 +4440,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="136"/>
       <c r="B27" s="40"/>
       <c r="C27" s="6" t="s">
@@ -4405,7 +4465,7 @@
       </c>
       <c r="K27" s="86"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="136"/>
       <c r="B28" s="40"/>
       <c r="C28" s="6" t="s">
@@ -4435,7 +4495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="136"/>
       <c r="B29" s="40"/>
       <c r="C29" s="6" t="s">
@@ -4463,7 +4523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="136"/>
       <c r="B30" s="40"/>
       <c r="C30" s="6" t="s">
@@ -4486,7 +4546,7 @@
       </c>
       <c r="K30" s="86"/>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="136"/>
       <c r="B31" s="40"/>
       <c r="C31" s="6" t="s">
@@ -4511,7 +4571,7 @@
       </c>
       <c r="K31" s="86"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="136"/>
       <c r="B32" s="42"/>
       <c r="C32" s="6" t="s">
@@ -4536,7 +4596,7 @@
       </c>
       <c r="K32" s="86"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="136"/>
       <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
@@ -4564,7 +4624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="136"/>
       <c r="B34" s="42"/>
       <c r="C34" s="6" t="s">
@@ -4589,7 +4649,7 @@
       </c>
       <c r="K34" s="86"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="136"/>
       <c r="B35" s="42"/>
       <c r="C35" s="7" t="s">
@@ -4614,7 +4674,7 @@
       </c>
       <c r="K35" s="86"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="137"/>
       <c r="B36" s="41"/>
       <c r="C36" s="96" t="s">
@@ -4629,7 +4689,7 @@
       <c r="J36" s="88"/>
       <c r="K36" s="86"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="125" t="s">
         <v>80</v>
       </c>
@@ -4654,7 +4714,7 @@
       </c>
       <c r="K37" s="86"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="126"/>
       <c r="B38" s="44"/>
       <c r="C38" s="9" t="s">
@@ -4677,7 +4737,7 @@
       </c>
       <c r="K38" s="86"/>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="126"/>
       <c r="B39" s="44"/>
       <c r="C39" s="9" t="s">
@@ -4700,7 +4760,7 @@
       </c>
       <c r="K39" s="86"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="126"/>
       <c r="B40" s="44"/>
       <c r="C40" s="9" t="s">
@@ -4723,7 +4783,7 @@
       </c>
       <c r="K40" s="86"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="126"/>
       <c r="B41" s="44"/>
       <c r="C41" s="9" t="s">
@@ -4746,7 +4806,7 @@
       </c>
       <c r="K41" s="86"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="126"/>
       <c r="B42" s="44"/>
       <c r="C42" s="9" t="s">
@@ -4769,7 +4829,7 @@
       </c>
       <c r="K42" s="86"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="126"/>
       <c r="B43" s="44"/>
       <c r="C43" s="9" t="s">
@@ -4792,7 +4852,7 @@
       </c>
       <c r="K43" s="86"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="126"/>
       <c r="B44" s="44"/>
       <c r="C44" s="9" t="s">
@@ -4815,7 +4875,7 @@
       </c>
       <c r="K44" s="86"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="126"/>
       <c r="B45" s="44"/>
       <c r="C45" s="9" t="s">
@@ -4838,7 +4898,7 @@
       </c>
       <c r="K45" s="86"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="126"/>
       <c r="B46" s="44"/>
       <c r="C46" s="9" t="s">
@@ -4861,7 +4921,7 @@
       </c>
       <c r="K46" s="86"/>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="127"/>
       <c r="B47" s="47"/>
       <c r="C47" s="10" t="s">
@@ -4884,7 +4944,7 @@
       </c>
       <c r="K47" s="86"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="127"/>
       <c r="B48" s="47"/>
       <c r="C48" s="92" t="s">
@@ -4907,7 +4967,7 @@
       </c>
       <c r="K48" s="86"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="127"/>
       <c r="B49" s="47"/>
       <c r="C49" s="92" t="s">
@@ -4924,7 +4984,7 @@
       </c>
       <c r="K49" s="86"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="128"/>
       <c r="B50" s="45"/>
       <c r="C50" s="96" t="s">
@@ -4939,7 +4999,7 @@
       <c r="J50" s="87"/>
       <c r="K50" s="86"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="100"/>
       <c r="B51" s="101"/>
       <c r="C51" s="102" t="s">
@@ -4968,7 +5028,7 @@
       </c>
       <c r="K51" s="86"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="143" t="s">
         <v>81</v>
       </c>
@@ -4983,7 +5043,7 @@
       <c r="J52" s="91"/>
       <c r="K52" s="86"/>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="126"/>
       <c r="B53" s="44"/>
       <c r="C53" s="9" t="s">
@@ -5004,7 +5064,7 @@
       </c>
       <c r="K53" s="86"/>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="126"/>
       <c r="B54" s="44"/>
       <c r="C54" s="9" t="s">
@@ -5025,7 +5085,7 @@
       </c>
       <c r="K54" s="86"/>
     </row>
-    <row r="55" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="126"/>
       <c r="B55" s="44"/>
       <c r="C55" s="9" t="s">
@@ -5048,7 +5108,7 @@
       </c>
       <c r="K55" s="86"/>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="127"/>
       <c r="B56" s="47"/>
       <c r="C56" s="12" t="s">
@@ -5067,7 +5127,7 @@
       <c r="J56" s="91"/>
       <c r="K56" s="86"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="125" t="s">
         <v>82</v>
       </c>
@@ -5094,7 +5154,7 @@
       </c>
       <c r="K57" s="86"/>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="126"/>
       <c r="B58" s="44"/>
       <c r="C58" s="9" t="s">
@@ -5121,7 +5181,7 @@
       </c>
       <c r="K58" s="86"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="126"/>
       <c r="B59" s="44"/>
       <c r="C59" s="108" t="s">
@@ -5142,7 +5202,7 @@
       <c r="J59" s="91"/>
       <c r="K59" s="86"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="126"/>
       <c r="B60" s="44"/>
       <c r="C60" s="108" t="s">
@@ -5163,7 +5223,7 @@
       <c r="J60" s="91"/>
       <c r="K60" s="86"/>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="126"/>
       <c r="B61" s="44"/>
       <c r="C61" s="9" t="s">
@@ -5186,7 +5246,7 @@
       </c>
       <c r="K61" s="86"/>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="126"/>
       <c r="B62" s="44"/>
       <c r="C62" s="109" t="s">
@@ -5209,7 +5269,7 @@
       </c>
       <c r="K62" s="86"/>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="127"/>
       <c r="B63" s="47"/>
       <c r="C63" s="110" t="s">
@@ -5232,7 +5292,7 @@
       </c>
       <c r="K63" s="86"/>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="127"/>
       <c r="B64" s="47"/>
       <c r="C64" s="110" t="s">
@@ -5255,7 +5315,7 @@
       </c>
       <c r="K64" s="86"/>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="127"/>
       <c r="B65" s="47"/>
       <c r="C65" s="110" t="s">
@@ -5278,7 +5338,7 @@
       </c>
       <c r="K65" s="86"/>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="128"/>
       <c r="B66" s="45"/>
       <c r="C66" s="111" t="s">
@@ -5303,37 +5363,37 @@
       </c>
       <c r="K66" s="86"/>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A52:A56"/>
@@ -5358,16 +5418,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="9" width="13.6640625" customWidth="1"/>
+    <col min="4" max="9" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5400,7 +5460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
         <v>7</v>
       </c>
@@ -5430,7 +5490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="136"/>
       <c r="B5" s="40"/>
       <c r="C5" s="6" t="s">
@@ -5458,7 +5518,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="136"/>
       <c r="B6" s="40"/>
       <c r="C6" s="6" t="s">
@@ -5486,7 +5546,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="136"/>
       <c r="B7" s="40"/>
       <c r="C7" s="6" t="s">
@@ -5512,7 +5572,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="136"/>
       <c r="B8" s="40"/>
       <c r="C8" s="6" t="s">
@@ -5538,7 +5598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="136"/>
       <c r="B9" s="40"/>
       <c r="C9" s="6" t="s">
@@ -5562,7 +5622,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="136"/>
       <c r="B10" s="40"/>
       <c r="C10" s="6" t="s">
@@ -5588,7 +5648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="136"/>
       <c r="B11" s="40"/>
       <c r="C11" s="6" t="s">
@@ -5612,7 +5672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="136"/>
       <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
@@ -5636,7 +5696,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="136"/>
       <c r="B13" s="42"/>
       <c r="C13" s="6" t="s">
@@ -5660,7 +5720,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="136"/>
       <c r="B14" s="42"/>
       <c r="C14" s="6" t="s">
@@ -5684,7 +5744,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="136"/>
       <c r="B15" s="42"/>
       <c r="C15" s="6" t="s">
@@ -5708,7 +5768,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="137"/>
       <c r="B16" s="41"/>
       <c r="C16" s="7" t="s">
@@ -5745,74 +5805,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="65.5546875" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="65.5" customWidth="1"/>
+    <col min="6" max="6" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="121" t="s">
         <v>155</v>
       </c>
@@ -5825,7 +5885,7 @@
       <c r="E19" s="124"/>
       <c r="F19" s="112"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="113"/>
       <c r="C20" s="115"/>
       <c r="D20" s="116"/>
@@ -5836,7 +5896,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="113" t="s">
         <v>153</v>
       </c>
@@ -5849,14 +5909,14 @@
       <c r="E21" s="117"/>
       <c r="F21" s="113"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="113"/>
       <c r="C22" s="115"/>
       <c r="D22" s="116"/>
       <c r="E22" s="117"/>
       <c r="F22" s="113"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="113"/>
       <c r="C23" s="115"/>
       <c r="D23" s="116"/>
@@ -5867,7 +5927,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="113"/>
       <c r="C24" s="115"/>
       <c r="D24" s="116"/>
@@ -5878,7 +5938,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="113"/>
       <c r="C25" s="115"/>
       <c r="D25" s="116"/>
@@ -5889,7 +5949,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="113"/>
       <c r="C26" s="115"/>
       <c r="D26" s="116"/>
@@ -5900,7 +5960,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="113"/>
       <c r="C27" s="115"/>
       <c r="D27" s="116"/>
@@ -5911,14 +5971,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="113"/>
       <c r="C28" s="115"/>
       <c r="D28" s="116"/>
       <c r="E28" s="117"/>
       <c r="F28" s="113"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="113"/>
       <c r="C29" s="115" t="s">
         <v>240</v>
@@ -5927,7 +5987,7 @@
       <c r="E29" s="117"/>
       <c r="F29" s="113"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="113"/>
       <c r="C30" s="115"/>
       <c r="D30" s="116" t="s">
@@ -5940,7 +6000,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="113"/>
       <c r="C31" s="115"/>
       <c r="D31" s="116" t="s">
@@ -5953,7 +6013,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="113"/>
       <c r="C32" s="115"/>
       <c r="D32" s="116" t="s">
@@ -5966,7 +6026,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="113"/>
       <c r="C33" s="115"/>
       <c r="D33" s="116" t="s">
@@ -5979,21 +6039,21 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="113"/>
       <c r="C34" s="115"/>
       <c r="D34" s="116"/>
       <c r="E34" s="117"/>
       <c r="F34" s="113"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="113"/>
       <c r="C35" s="115"/>
       <c r="D35" s="116"/>
       <c r="E35" s="117"/>
       <c r="F35" s="113"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="113" t="s">
         <v>167</v>
       </c>
@@ -6004,14 +6064,14 @@
       <c r="E36" s="117"/>
       <c r="F36" s="113"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="113"/>
       <c r="C37" s="115"/>
       <c r="D37" s="116"/>
       <c r="E37" s="117"/>
       <c r="F37" s="113"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="113" t="s">
         <v>246</v>
       </c>
@@ -6020,7 +6080,7 @@
       <c r="E38" s="117"/>
       <c r="F38" s="113"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="113"/>
       <c r="C39" s="115" t="s">
         <v>237</v>
@@ -6029,7 +6089,7 @@
       <c r="E39" s="117"/>
       <c r="F39" s="113"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="113"/>
       <c r="C40" s="115"/>
       <c r="D40" s="116" t="s">
@@ -6040,7 +6100,7 @@
       </c>
       <c r="F40" s="113"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="113"/>
       <c r="C41" s="115"/>
       <c r="D41" s="116" t="s">
@@ -6053,7 +6113,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="113"/>
       <c r="C42" s="115"/>
       <c r="D42" s="116"/>
@@ -6064,21 +6124,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="113"/>
       <c r="C43" s="115"/>
       <c r="D43" s="116"/>
       <c r="E43" s="117"/>
       <c r="F43" s="113"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="113"/>
       <c r="C44" s="115"/>
       <c r="D44" s="116"/>
       <c r="E44" s="117"/>
       <c r="F44" s="113"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="113" t="s">
         <v>247</v>
       </c>
@@ -6087,14 +6147,14 @@
       <c r="E45" s="117"/>
       <c r="F45" s="113"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="113"/>
       <c r="C46" s="115"/>
       <c r="D46" s="116"/>
       <c r="E46" s="117"/>
       <c r="F46" s="113"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="113"/>
       <c r="C47" s="115"/>
       <c r="D47" s="116" t="s">
@@ -6105,7 +6165,7 @@
       </c>
       <c r="F47" s="113"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="113"/>
       <c r="C48" s="115"/>
       <c r="D48" s="116"/>
@@ -6116,14 +6176,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="113"/>
       <c r="C49" s="115"/>
       <c r="D49" s="116"/>
       <c r="E49" s="117"/>
       <c r="F49" s="113"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="113" t="s">
         <v>238</v>
       </c>
@@ -6132,7 +6192,7 @@
       <c r="E50" s="117"/>
       <c r="F50" s="113"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="113"/>
       <c r="C51" s="115" t="s">
         <v>237</v>
@@ -6141,14 +6201,14 @@
       <c r="E51" s="117"/>
       <c r="F51" s="113"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="113"/>
       <c r="C52" s="115"/>
       <c r="D52" s="116"/>
       <c r="E52" s="117"/>
       <c r="F52" s="113"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="113"/>
       <c r="C53" s="115"/>
       <c r="D53" s="116" t="s">
@@ -6159,7 +6219,7 @@
       </c>
       <c r="F53" s="113"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="113"/>
       <c r="C54" s="115"/>
       <c r="D54" s="116" t="s">
@@ -6170,280 +6230,280 @@
       </c>
       <c r="F54" s="113"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="113"/>
       <c r="C55" s="115"/>
       <c r="D55" s="116"/>
       <c r="E55" s="117"/>
       <c r="F55" s="113"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="113"/>
       <c r="C56" s="115"/>
       <c r="D56" s="116"/>
       <c r="E56" s="117"/>
       <c r="F56" s="113"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="113"/>
       <c r="C57" s="115"/>
       <c r="D57" s="116"/>
       <c r="E57" s="117"/>
       <c r="F57" s="113"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="113"/>
       <c r="C58" s="115"/>
       <c r="D58" s="116"/>
       <c r="E58" s="117"/>
       <c r="F58" s="113"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="113"/>
       <c r="C59" s="115"/>
       <c r="D59" s="116"/>
       <c r="E59" s="117"/>
       <c r="F59" s="113"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="113"/>
       <c r="C60" s="115"/>
       <c r="D60" s="116"/>
       <c r="E60" s="117"/>
       <c r="F60" s="113"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="113"/>
       <c r="C61" s="115"/>
       <c r="D61" s="116"/>
       <c r="E61" s="117"/>
       <c r="F61" s="113"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="113"/>
       <c r="C62" s="115"/>
       <c r="D62" s="116"/>
       <c r="E62" s="117"/>
       <c r="F62" s="113"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="113"/>
       <c r="C63" s="115"/>
       <c r="D63" s="116"/>
       <c r="E63" s="117"/>
       <c r="F63" s="113"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="113"/>
       <c r="C64" s="115"/>
       <c r="D64" s="116"/>
       <c r="E64" s="117"/>
       <c r="F64" s="113"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="113"/>
       <c r="C65" s="115"/>
       <c r="D65" s="116"/>
       <c r="E65" s="117"/>
       <c r="F65" s="113"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="113"/>
       <c r="C66" s="115"/>
       <c r="D66" s="116"/>
       <c r="E66" s="117"/>
       <c r="F66" s="113"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="113"/>
       <c r="C67" s="115"/>
       <c r="D67" s="116"/>
       <c r="E67" s="117"/>
       <c r="F67" s="113"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="113"/>
       <c r="C68" s="115"/>
       <c r="D68" s="116"/>
       <c r="E68" s="117"/>
       <c r="F68" s="113"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="113"/>
       <c r="C69" s="115"/>
       <c r="D69" s="116"/>
       <c r="E69" s="117"/>
       <c r="F69" s="113"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="113"/>
       <c r="C70" s="115"/>
       <c r="D70" s="116"/>
       <c r="E70" s="117"/>
       <c r="F70" s="113"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="113"/>
       <c r="C71" s="115"/>
       <c r="D71" s="116"/>
       <c r="E71" s="117"/>
       <c r="F71" s="113"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="113"/>
       <c r="C72" s="115"/>
       <c r="D72" s="116"/>
       <c r="E72" s="117"/>
       <c r="F72" s="113"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="113"/>
       <c r="C73" s="115"/>
       <c r="D73" s="116"/>
       <c r="E73" s="117"/>
       <c r="F73" s="113"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="113"/>
       <c r="C74" s="115"/>
       <c r="D74" s="116"/>
       <c r="E74" s="117"/>
       <c r="F74" s="113"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="113"/>
       <c r="C75" s="115"/>
       <c r="D75" s="116"/>
       <c r="E75" s="117"/>
       <c r="F75" s="113"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="113"/>
       <c r="C76" s="115"/>
       <c r="D76" s="116"/>
       <c r="E76" s="117"/>
       <c r="F76" s="113"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="113"/>
       <c r="C77" s="115"/>
       <c r="D77" s="116"/>
       <c r="E77" s="117"/>
       <c r="F77" s="113"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="113"/>
       <c r="C78" s="115"/>
       <c r="D78" s="116"/>
       <c r="E78" s="117"/>
       <c r="F78" s="113"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="113"/>
       <c r="C79" s="115"/>
       <c r="D79" s="116"/>
       <c r="E79" s="117"/>
       <c r="F79" s="113"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="113"/>
       <c r="C80" s="115"/>
       <c r="D80" s="116"/>
       <c r="E80" s="117"/>
       <c r="F80" s="113"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="113"/>
       <c r="C81" s="115"/>
       <c r="D81" s="116"/>
       <c r="E81" s="117"/>
       <c r="F81" s="113"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="113"/>
       <c r="C82" s="115"/>
       <c r="D82" s="116"/>
       <c r="E82" s="117"/>
       <c r="F82" s="113"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="113"/>
       <c r="C83" s="115"/>
       <c r="D83" s="116"/>
       <c r="E83" s="117"/>
       <c r="F83" s="113"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="113"/>
       <c r="C84" s="115"/>
       <c r="D84" s="116"/>
       <c r="E84" s="117"/>
       <c r="F84" s="113"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="113"/>
       <c r="C85" s="115"/>
       <c r="D85" s="116"/>
       <c r="E85" s="117"/>
       <c r="F85" s="113"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="113"/>
       <c r="C86" s="115"/>
       <c r="D86" s="116"/>
       <c r="E86" s="117"/>
       <c r="F86" s="113"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="113"/>
       <c r="C87" s="115"/>
       <c r="D87" s="116"/>
       <c r="E87" s="117"/>
       <c r="F87" s="113"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="113"/>
       <c r="C88" s="115"/>
       <c r="D88" s="116"/>
       <c r="E88" s="117"/>
       <c r="F88" s="113"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="113"/>
       <c r="C89" s="115"/>
       <c r="D89" s="116"/>
       <c r="E89" s="117"/>
       <c r="F89" s="113"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="113"/>
       <c r="C90" s="115"/>
       <c r="D90" s="116"/>
       <c r="E90" s="117"/>
       <c r="F90" s="113"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="113"/>
       <c r="C91" s="115"/>
       <c r="D91" s="116"/>
       <c r="E91" s="117"/>
       <c r="F91" s="113"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="113"/>
       <c r="C92" s="115"/>
       <c r="D92" s="116"/>
       <c r="E92" s="117"/>
       <c r="F92" s="113"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="113"/>
       <c r="C93" s="115"/>
       <c r="D93" s="116"/>
       <c r="E93" s="117"/>
       <c r="F93" s="113"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="114"/>
       <c r="C94" s="118"/>
       <c r="D94" s="119"/>
